--- a/LOGS/ed568ca4-0c35-40f7-b53d-a29d16d0bc1d/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/ed568ca4-0c35-40f7-b53d-a29d16d0bc1d/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -29,14 +29,13 @@
     <sheet name="23__2593a46b-f639-34" sheetId="20" r:id="rId20"/>
     <sheet name="24__7b5bfd3e-c637-38" sheetId="21" r:id="rId21"/>
     <sheet name="24__9b5cd521-7e99-36" sheetId="22" r:id="rId22"/>
-    <sheet name="6__f39d8c37-6a5d-3f0" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="180">
   <si>
     <t>rows</t>
   </si>
@@ -576,18 +575,6 @@
   </si>
   <si>
     <t>income $ '000</t>
-  </si>
-  <si>
-    <t>6 Other Income Foreign exchange gain</t>
-  </si>
-  <si>
-    <t>6 Other Income Dividend income Sales Commissions</t>
-  </si>
-  <si>
-    <t>6 Other Income Other income</t>
-  </si>
-  <si>
-    <t>6 Other Income Total</t>
   </si>
 </sst>
 </file>
@@ -12983,253 +12970,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2">
-        <v>2023</v>
-      </c>
-      <c r="D2">
-        <v>7176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3">
-        <v>2023</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4">
-        <v>2023</v>
-      </c>
-      <c r="D4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5">
-        <v>2023</v>
-      </c>
-      <c r="D5">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6">
-        <v>2023</v>
-      </c>
-      <c r="D6">
-        <v>8972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7">
-        <v>2022</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8">
-        <v>2022</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9">
-        <v>2022</v>
-      </c>
-      <c r="D9">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10">
-        <v>2022</v>
-      </c>
-      <c r="D10">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11">
-        <v>2022</v>
-      </c>
-      <c r="D11">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12">
-        <v>2022</v>
-      </c>
-      <c r="D12">
-        <v>3845</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13">
-        <v>2022</v>
-      </c>
-      <c r="D13">
-        <v>245000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14">
-        <v>2022</v>
-      </c>
-      <c r="D14">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15">
-        <v>2022</v>
-      </c>
-      <c r="D15">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16">
-        <v>2022</v>
-      </c>
-      <c r="D16">
-        <v>249570</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17">
-        <v>2022</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18">
-        <v>2022</v>
-      </c>
-      <c r="D18">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19">
-        <v>2022</v>
-      </c>
-      <c r="D19">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20">
-        <v>2022</v>
-      </c>
-      <c r="D20">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21">
-        <v>2022</v>
-      </c>
-      <c r="D21">
-        <v>100534</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D93"/>
